--- a/python/two/nn2 Error t1=6 t2=5 δ=0.5.xlsx
+++ b/python/two/nn2 Error t1=6 t2=5 δ=0.5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Fitted</t>
+          <t>Fit (clean)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>% Error</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fit (noise)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>% Error</t>
         </is>
@@ -460,10 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.91e-05</v>
+        <v>-0.251</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.645</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +492,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00298</v>
+        <v>-80</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +514,16 @@
         <v>0.0001</v>
       </c>
       <c r="C4" t="n">
+        <v>9.99e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.0877</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0001</v>
       </c>
-      <c r="D4" t="n">
-        <v>-2.21e-05</v>
+      <c r="F4" t="n">
+        <v>0.288</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +536,16 @@
         <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00281</v>
+        <v>45</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-13.6</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.51e-07</v>
+        <v>-1.11e-14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.000666</v>
       </c>
     </row>
     <row r="7">
@@ -540,9 +580,17 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.96e-06</v>
+        <v>144000</v>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -558,9 +606,17 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.52e-08</v>
+        <v>741</v>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>866</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
